--- a/data/HDR_Table_4.xlsx
+++ b/data/HDR_Table_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mari9\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mari9\Documents\STAT697_SAS_SQL\team-3_project_repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8E052C-EA09-4C06-A5DE-0105B997764B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C702CA6-3A58-4641-8FA9-B3B0096CB0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,28 +613,28 @@
     <t>HDI male</t>
   </si>
   <si>
-    <t>Life expectancy at birth, female</t>
-  </si>
-  <si>
-    <t>Life expectancy at birth, male</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Mean years of schooling, female</t>
-  </si>
-  <si>
-    <t>Mean years of schooling, male</t>
-  </si>
-  <si>
-    <t>Estimated gross national income per capita, female</t>
-  </si>
-  <si>
-    <t>Estimated gross national income per capita, male</t>
+    <t>Life expectancy at birth female</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling male</t>
+  </si>
+  <si>
+    <t>Mean years of schooling female</t>
+  </si>
+  <si>
+    <t>Mean years of schooling male</t>
+  </si>
+  <si>
+    <t>Estimated gross national income per capita female</t>
+  </si>
+  <si>
+    <t>Estimated gross national income per capita male</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191:XFD265"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
